--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.13148730721374</v>
+        <v>2.147752666666667</v>
       </c>
       <c r="H2">
-        <v>2.13148730721374</v>
+        <v>6.443258</v>
       </c>
       <c r="I2">
-        <v>0.8757556461186389</v>
+        <v>0.8708065646157738</v>
       </c>
       <c r="J2">
-        <v>0.8757556461186389</v>
+        <v>0.8708065646157739</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.51962784514141</v>
+        <v>2.442429333333334</v>
       </c>
       <c r="N2">
-        <v>1.51962784514141</v>
+        <v>7.327288</v>
       </c>
       <c r="O2">
-        <v>0.05752615838860899</v>
+        <v>0.08913295894744963</v>
       </c>
       <c r="P2">
-        <v>0.05752615838860899</v>
+        <v>0.08913295894744963</v>
       </c>
       <c r="Q2">
-        <v>3.239067463607483</v>
+        <v>5.245734113811556</v>
       </c>
       <c r="R2">
-        <v>3.239067463607483</v>
+        <v>47.211607024304</v>
       </c>
       <c r="S2">
-        <v>0.05037885800833942</v>
+        <v>0.07761756577506741</v>
       </c>
       <c r="T2">
-        <v>0.05037885800833942</v>
+        <v>0.07761756577506741</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.13148730721374</v>
+        <v>2.147752666666667</v>
       </c>
       <c r="H3">
-        <v>2.13148730721374</v>
+        <v>6.443258</v>
       </c>
       <c r="I3">
-        <v>0.8757556461186389</v>
+        <v>0.8708065646157738</v>
       </c>
       <c r="J3">
-        <v>0.8757556461186389</v>
+        <v>0.8708065646157739</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.8202665710153</v>
+        <v>15.82990933333333</v>
       </c>
       <c r="N3">
-        <v>15.8202665710153</v>
+        <v>47.489728</v>
       </c>
       <c r="O3">
-        <v>0.5988829195411025</v>
+        <v>0.5776898596383203</v>
       </c>
       <c r="P3">
-        <v>0.5988829195411025</v>
+        <v>0.5776898596383203</v>
       </c>
       <c r="Q3">
-        <v>33.72069739285695</v>
+        <v>33.99872998375822</v>
       </c>
       <c r="R3">
-        <v>33.72069739285695</v>
+        <v>305.988569853824</v>
       </c>
       <c r="S3">
-        <v>0.524475098152135</v>
+        <v>0.5030561220850143</v>
       </c>
       <c r="T3">
-        <v>0.524475098152135</v>
+        <v>0.5030561220850143</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.13148730721374</v>
+        <v>2.147752666666667</v>
       </c>
       <c r="H4">
-        <v>2.13148730721374</v>
+        <v>6.443258</v>
       </c>
       <c r="I4">
-        <v>0.8757556461186389</v>
+        <v>0.8708065646157738</v>
       </c>
       <c r="J4">
-        <v>0.8757556461186389</v>
+        <v>0.8708065646157739</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.07639840972263</v>
+        <v>9.129750999999999</v>
       </c>
       <c r="N4">
-        <v>9.07639840972263</v>
+        <v>27.389253</v>
       </c>
       <c r="O4">
-        <v>0.3435909220702886</v>
+        <v>0.3331771814142301</v>
       </c>
       <c r="P4">
-        <v>0.3435909220702886</v>
+        <v>0.3331771814142301</v>
       </c>
       <c r="Q4">
-        <v>19.34622800553876</v>
+        <v>19.60844705625266</v>
       </c>
       <c r="R4">
-        <v>19.34622800553876</v>
+        <v>176.476023506274</v>
       </c>
       <c r="S4">
-        <v>0.3009016899581645</v>
+        <v>0.2901328767556921</v>
       </c>
       <c r="T4">
-        <v>0.3009016899581645</v>
+        <v>0.2901328767556922</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.302396295661698</v>
+        <v>0.318642</v>
       </c>
       <c r="H5">
-        <v>0.302396295661698</v>
+        <v>0.9559260000000001</v>
       </c>
       <c r="I5">
-        <v>0.1242443538813611</v>
+        <v>0.1291934353842261</v>
       </c>
       <c r="J5">
-        <v>0.1242443538813611</v>
+        <v>0.1291934353842261</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.51962784514141</v>
+        <v>2.442429333333334</v>
       </c>
       <c r="N5">
-        <v>1.51962784514141</v>
+        <v>7.327288</v>
       </c>
       <c r="O5">
-        <v>0.05752615838860899</v>
+        <v>0.08913295894744963</v>
       </c>
       <c r="P5">
-        <v>0.05752615838860899</v>
+        <v>0.08913295894744963</v>
       </c>
       <c r="Q5">
-        <v>0.4595298311551309</v>
+        <v>0.7782605676320001</v>
       </c>
       <c r="R5">
-        <v>0.4595298311551309</v>
+        <v>7.004345108688001</v>
       </c>
       <c r="S5">
-        <v>0.007147300380269563</v>
+        <v>0.01151539317238221</v>
       </c>
       <c r="T5">
-        <v>0.007147300380269563</v>
+        <v>0.01151539317238221</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.302396295661698</v>
+        <v>0.318642</v>
       </c>
       <c r="H6">
-        <v>0.302396295661698</v>
+        <v>0.9559260000000001</v>
       </c>
       <c r="I6">
-        <v>0.1242443538813611</v>
+        <v>0.1291934353842261</v>
       </c>
       <c r="J6">
-        <v>0.1242443538813611</v>
+        <v>0.1291934353842261</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.8202665710153</v>
+        <v>15.82990933333333</v>
       </c>
       <c r="N6">
-        <v>15.8202665710153</v>
+        <v>47.489728</v>
       </c>
       <c r="O6">
-        <v>0.5988829195411025</v>
+        <v>0.5776898596383203</v>
       </c>
       <c r="P6">
-        <v>0.5988829195411025</v>
+        <v>0.5776898596383203</v>
       </c>
       <c r="Q6">
-        <v>4.783990007455619</v>
+        <v>5.044073969792001</v>
       </c>
       <c r="R6">
-        <v>4.783990007455619</v>
+        <v>45.396665728128</v>
       </c>
       <c r="S6">
-        <v>0.07440782138896743</v>
+        <v>0.074633737553306</v>
       </c>
       <c r="T6">
-        <v>0.07440782138896743</v>
+        <v>0.074633737553306</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.302396295661698</v>
+        <v>0.318642</v>
       </c>
       <c r="H7">
-        <v>0.302396295661698</v>
+        <v>0.9559260000000001</v>
       </c>
       <c r="I7">
-        <v>0.1242443538813611</v>
+        <v>0.1291934353842261</v>
       </c>
       <c r="J7">
-        <v>0.1242443538813611</v>
+        <v>0.1291934353842261</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.07639840972263</v>
+        <v>9.129750999999999</v>
       </c>
       <c r="N7">
-        <v>9.07639840972263</v>
+        <v>27.389253</v>
       </c>
       <c r="O7">
-        <v>0.3435909220702886</v>
+        <v>0.3331771814142301</v>
       </c>
       <c r="P7">
-        <v>0.3435909220702886</v>
+        <v>0.3331771814142301</v>
       </c>
       <c r="Q7">
-        <v>2.74466925704985</v>
+        <v>2.909122118142</v>
       </c>
       <c r="R7">
-        <v>2.74466925704985</v>
+        <v>26.182099063278</v>
       </c>
       <c r="S7">
-        <v>0.04268923211212409</v>
+        <v>0.04304430465853792</v>
       </c>
       <c r="T7">
-        <v>0.04268923211212409</v>
+        <v>0.04304430465853792</v>
       </c>
     </row>
   </sheetData>
